--- a/biology/Botanique/Taxon_monospécifique/Taxon_monospécifique.xlsx
+++ b/biology/Botanique/Taxon_monospécifique/Taxon_monospécifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taxon_monosp%C3%A9cifique</t>
+          <t>Taxon_monospécifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un taxon monospécifique est un taxon (de rang supérieur à l'espèce) qui ne comporte qu'une espèce connue (actuelle ou fossile). Ce taxon est donc aussi monotypique. Les éventuels taxons de rang intermédiaire (entre ce taxon et son unique espèce) sont également monospécifiques (donc monotypiques).
 Exemples :
